--- a/medicine/Enfance/Horst_Bosetzky/Horst_Bosetzky.xlsx
+++ b/medicine/Enfance/Horst_Bosetzky/Horst_Bosetzky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Horst Otto Oskar Bosetzky, né le 1er février 1938 à Berlin et mort le 16 septembre 2018 dans la même ville[1], est un sociologue et écrivain allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horst Otto Oskar Bosetzky, né le 1er février 1938 à Berlin et mort le 16 septembre 2018 dans la même ville, est un sociologue et écrivain allemand.
 Auteur d'une saga familiale et d'ouvrages de littérature d'enfance et de jeunesse, ainsi que, sous son pseudonyme -ky, de plusieurs romans policiers, il remporte le prix Mystère de la critique en 1988 avec le roman Kein Reihenhaus für Robin Hood (Robin des bois est mort).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études secondaires à Berlin, Erlangen et Hanovre, Horst Bosetzky devient un employé des services commerciaux de la compagnie Siemens. Il amorce en parallèle des études supérieures en sociologie, décroche un doctorat et enseigne à partir de 1971 à l'école supérieure d'administration de Berlin.
 Admirateur du romancier allemand Theodor Fontane, il amorce sa carrière littéraire alors qu'il est encore étudiant par la publication de nouvelles dans un journal berlinois. Après avoir collaboré à l'écriture de séries policières en fascicules dans les années 1960, il signe son premier roman policier en 1971 sous le pseudonyme de -ky. En France, son premier roman est traduit en 1986 sous le titre Du feu pour le grand dragon (Feuer für den großen Drachen, 1982) et met en scène un ghetto turc de Berlin terrorisé par une sorte de Ku Klux Klan allemand.
@@ -548,8 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Saga familiale
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Saga familiale</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aus der Traum, 1983
 Geh doch wieder rüber, 1986
 Ich glaub’, mich tritt ein Schimmel, 1986
@@ -569,7 +592,47 @@
 Die Liebesprüfung, 2006
 Die schönsten Jahre zwischen Wedding und Neukölln, 2006
 Bratkartoffeln oder Die Wege des Herrn, 2008
-Romans policiers signés -ky
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans policiers signés -ky</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Zu einem Mord gehören zwei, 1971
 Einer von uns beiden, 1972
 Von Beileidsbesuchen bitten wir abzusehen, 1972
@@ -622,11 +685,80 @@
 Mamsellenmord in der Friedrichstadt, 2012
 Berliner Leichenschau, 2013
 Fahnenflucht, 2013
-Ouvrages de littérature d'enfance et de jeunesse
-Heißt du wirklich Hasan Schmidt?, 1984
-Sonst ist es aus mit dir!, 1994
-Autobiographie
-(de) -ky’s Berliner Jugend – Erinnerungen in Wort und Bild, en coopération avec Rengha Rodewill, Vergangenheitsverlag, Berlin, 2014.  (ISBN 978-3-86408-173-6)</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Heißt du wirklich Hasan Schmidt?, 1984
+Sonst ist es aus mit dir!, 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horst_Bosetzky</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(de) -ky’s Berliner Jugend – Erinnerungen in Wort und Bild, en coopération avec Rengha Rodewill, Vergangenheitsverlag, Berlin, 2014.  (ISBN 978-3-86408-173-6)</t>
         </is>
       </c>
     </row>
